--- a/Centanet_ICI_Area_Code.xlsx
+++ b/Centanet_ICI_Area_Code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ytsang/Desktop/Github/web-scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3F0614-B3C1-BC43-B2D2-8A726ECF2380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13BE87E-F3D7-BD46-B70D-FF22DC91B403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25520" yWindow="3520" windowWidth="10480" windowHeight="18700" xr2:uid="{1B1342B0-2751-6243-94BF-C44E3F611501}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
   <si>
     <t>Region</t>
   </si>
@@ -327,6 +327,51 @@
   </si>
   <si>
     <t>WS044</t>
+  </si>
+  <si>
+    <t>WS043</t>
+  </si>
+  <si>
+    <t>WS052</t>
+  </si>
+  <si>
+    <t>WS035</t>
+  </si>
+  <si>
+    <t>WS054</t>
+  </si>
+  <si>
+    <t>WS037</t>
+  </si>
+  <si>
+    <t>WS040</t>
+  </si>
+  <si>
+    <t>WS038</t>
+  </si>
+  <si>
+    <t>WS042</t>
+  </si>
+  <si>
+    <t>WS051</t>
+  </si>
+  <si>
+    <t>WS036</t>
+  </si>
+  <si>
+    <t>WS053</t>
+  </si>
+  <si>
+    <t>WS034</t>
+  </si>
+  <si>
+    <t>WS041</t>
+  </si>
+  <si>
+    <t>WS039</t>
+  </si>
+  <si>
+    <t>WS050</t>
   </si>
 </sst>
 </file>
@@ -700,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AC7655-B669-B043-A510-92A2D5A0F92A}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,6 +1187,9 @@
       <c r="B40" t="s">
         <v>62</v>
       </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -1150,6 +1198,9 @@
       <c r="B41" t="s">
         <v>63</v>
       </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -1158,6 +1209,9 @@
       <c r="B42" t="s">
         <v>64</v>
       </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -1166,6 +1220,9 @@
       <c r="B43" t="s">
         <v>65</v>
       </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -1174,6 +1231,9 @@
       <c r="B44" t="s">
         <v>66</v>
       </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -1182,6 +1242,9 @@
       <c r="B45" t="s">
         <v>67</v>
       </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1190,6 +1253,9 @@
       <c r="B46" t="s">
         <v>68</v>
       </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -1198,6 +1264,9 @@
       <c r="B47" t="s">
         <v>69</v>
       </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1206,53 +1275,74 @@
       <c r="B48" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
       <c r="B51" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
       <c r="B53" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
         <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
